--- a/ExcelTemplates/bin/Debug/Templates/_template_счет_договор_QR.xlsx
+++ b/ExcelTemplates/bin/Debug/Templates/_template_счет_договор_QR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>БИК</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Напечатано: %NOW% %TODAY%</t>
+  </si>
+  <si>
+    <t>%BARCODE%</t>
+  </si>
+  <si>
+    <t>%MATRIX%</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -865,6 +871,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,6 +907,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1112,9 +1125,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,7 +1494,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ54"/>
+  <dimension ref="A1:AQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1517,38 +1527,38 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
       <c r="AP2" s="11"/>
     </row>
     <row r="3" spans="2:42" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1604,169 +1614,169 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
       <c r="AP4" s="17"/>
     </row>
     <row r="5" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="75"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="75"/>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
       <c r="AP5" s="13"/>
     </row>
     <row r="6" spans="2:42" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="102"/>
-      <c r="AO6" s="102"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
       <c r="AP6" s="30"/>
     </row>
     <row r="7" spans="2:42" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="88" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="90" t="s">
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="91"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="94"/>
       <c r="AJ7" s="26"/>
       <c r="AK7" s="27"/>
       <c r="AL7" s="27"/>
@@ -1776,40 +1786,40 @@
       <c r="AP7" s="28"/>
     </row>
     <row r="8" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="91"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="94"/>
       <c r="AJ8" s="19"/>
       <c r="AK8" s="14" t="s">
         <v>37</v>
@@ -1821,44 +1831,44 @@
       <c r="AP8" s="20"/>
     </row>
     <row r="9" spans="2:42" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="71" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="108" t="s">
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="109"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="109"/>
-      <c r="AH9" s="109"/>
-      <c r="AI9" s="109"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="112"/>
+      <c r="AG9" s="112"/>
+      <c r="AH9" s="112"/>
+      <c r="AI9" s="112"/>
       <c r="AJ9" s="19"/>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
@@ -1868,42 +1878,42 @@
       <c r="AP9" s="20"/>
     </row>
     <row r="10" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="111"/>
-      <c r="AH10" s="111"/>
-      <c r="AI10" s="111"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
       <c r="AJ10" s="19"/>
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
@@ -1913,50 +1923,50 @@
       <c r="AP10" s="20"/>
     </row>
     <row r="11" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="92" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="49" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="66" t="s">
+      <c r="L11" s="52"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="U11" s="67"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="112" t="s">
+      <c r="U11" s="70"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="113"/>
-      <c r="AA11" s="113"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="113"/>
-      <c r="AH11" s="113"/>
-      <c r="AI11" s="113"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="116"/>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
@@ -1966,42 +1976,42 @@
       <c r="AP11" s="20"/>
     </row>
     <row r="12" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="112"/>
+      <c r="AC12" s="112"/>
+      <c r="AD12" s="112"/>
+      <c r="AE12" s="112"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="112"/>
+      <c r="AI12" s="112"/>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
@@ -2011,40 +2021,40 @@
       <c r="AP12" s="20"/>
     </row>
     <row r="13" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="109"/>
-      <c r="AI13" s="109"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="112"/>
+      <c r="AD13" s="112"/>
+      <c r="AE13" s="112"/>
+      <c r="AF13" s="112"/>
+      <c r="AG13" s="112"/>
+      <c r="AH13" s="112"/>
+      <c r="AI13" s="112"/>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
@@ -2054,40 +2064,40 @@
       <c r="AP13" s="20"/>
     </row>
     <row r="14" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="109"/>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="109"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="112"/>
+      <c r="AB14" s="112"/>
+      <c r="AC14" s="112"/>
+      <c r="AD14" s="112"/>
+      <c r="AE14" s="112"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="112"/>
+      <c r="AH14" s="112"/>
+      <c r="AI14" s="112"/>
       <c r="AJ14" s="19"/>
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
@@ -2097,42 +2107,42 @@
       <c r="AP14" s="20"/>
     </row>
     <row r="15" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="109"/>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="109"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="109"/>
-      <c r="AD15" s="109"/>
-      <c r="AE15" s="109"/>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="109"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="112"/>
+      <c r="AB15" s="112"/>
+      <c r="AC15" s="112"/>
+      <c r="AD15" s="112"/>
+      <c r="AE15" s="112"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="112"/>
+      <c r="AH15" s="112"/>
+      <c r="AI15" s="112"/>
       <c r="AJ15" s="19"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
@@ -2142,42 +2152,42 @@
       <c r="AP15" s="20"/>
     </row>
     <row r="16" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="105"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="107"/>
+      <c r="AH16" s="107"/>
+      <c r="AI16" s="108"/>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -2232,144 +2242,144 @@
       <c r="AP17" s="23"/>
     </row>
     <row r="18" spans="2:42" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="95"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="95"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="98"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="98"/>
       <c r="AP18" s="25"/>
     </row>
     <row r="19" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="52" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
-      <c r="AO20" s="52"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
       <c r="AP20" s="12"/>
     </row>
     <row r="21" spans="2:42" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="52" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="52"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
       <c r="AP22" s="12"/>
     </row>
     <row r="23" spans="2:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2459,363 +2469,363 @@
       <c r="AP24" s="6"/>
     </row>
     <row r="25" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="60"/>
-      <c r="AL25" s="60"/>
-      <c r="AM25" s="60"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="60"/>
-      <c r="AP25" s="60"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="63"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="63"/>
     </row>
     <row r="26" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="60"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="60"/>
-      <c r="AP26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="63"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="63"/>
     </row>
     <row r="27" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="60"/>
-      <c r="AM27" s="60"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="60"/>
-      <c r="AP27" s="60"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63"/>
     </row>
     <row r="28" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="60"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="60"/>
-      <c r="AM28" s="60"/>
-      <c r="AN28" s="60"/>
-      <c r="AO28" s="60"/>
-      <c r="AP28" s="60"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
     </row>
     <row r="29" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
-      <c r="AM29" s="60"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="60"/>
-      <c r="AP29" s="60"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
     </row>
     <row r="30" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="60"/>
-      <c r="AM30" s="60"/>
-      <c r="AN30" s="60"/>
-      <c r="AO30" s="60"/>
-      <c r="AP30" s="60"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="63"/>
+      <c r="AO30" s="63"/>
+      <c r="AP30" s="63"/>
     </row>
     <row r="31" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="60"/>
-      <c r="AJ31" s="60"/>
-      <c r="AK31" s="60"/>
-      <c r="AL31" s="60"/>
-      <c r="AM31" s="60"/>
-      <c r="AN31" s="60"/>
-      <c r="AO31" s="60"/>
-      <c r="AP31" s="60"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
     </row>
     <row r="32" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="60"/>
-      <c r="AF32" s="60"/>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="60"/>
-      <c r="AK32" s="60"/>
-      <c r="AL32" s="60"/>
-      <c r="AM32" s="60"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="60"/>
-      <c r="AP32" s="60"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="63"/>
+      <c r="AO32" s="63"/>
+      <c r="AP32" s="63"/>
     </row>
     <row r="33" spans="2:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="31"/>
@@ -2904,245 +2914,245 @@
       <c r="AP34" s="6"/>
     </row>
     <row r="35" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="39" t="s">
+      <c r="C35" s="64"/>
+      <c r="D35" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="40" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AC35" s="64"/>
-      <c r="AD35" s="64"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="39" t="s">
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="67"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="68"/>
+      <c r="AG35" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="40"/>
-      <c r="AL35" s="117" t="s">
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="42"/>
+      <c r="AL35" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="AM35" s="117"/>
-      <c r="AN35" s="117"/>
-      <c r="AO35" s="117"/>
-      <c r="AP35" s="118"/>
+      <c r="AM35" s="120"/>
+      <c r="AN35" s="120"/>
+      <c r="AO35" s="120"/>
+      <c r="AP35" s="121"/>
     </row>
     <row r="36" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="63"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="42"/>
-      <c r="AJ36" s="42"/>
-      <c r="AK36" s="42"/>
-      <c r="AL36" s="119"/>
-      <c r="AM36" s="119"/>
-      <c r="AN36" s="119"/>
-      <c r="AO36" s="119"/>
-      <c r="AP36" s="120"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="122"/>
+      <c r="AM36" s="122"/>
+      <c r="AN36" s="122"/>
+      <c r="AO36" s="122"/>
+      <c r="AP36" s="123"/>
     </row>
     <row r="37" spans="2:42" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="115"/>
-      <c r="O37" s="115"/>
-      <c r="P37" s="115"/>
-      <c r="Q37" s="115"/>
-      <c r="R37" s="115"/>
-      <c r="S37" s="115"/>
-      <c r="T37" s="115"/>
-      <c r="U37" s="115"/>
-      <c r="V37" s="115"/>
-      <c r="W37" s="115"/>
-      <c r="X37" s="115"/>
-      <c r="Y37" s="115"/>
-      <c r="Z37" s="115"/>
-      <c r="AA37" s="115"/>
-      <c r="AB37" s="115"/>
-      <c r="AC37" s="115"/>
-      <c r="AD37" s="115"/>
-      <c r="AE37" s="115"/>
-      <c r="AF37" s="115"/>
-      <c r="AG37" s="115"/>
-      <c r="AH37" s="115"/>
-      <c r="AI37" s="115"/>
-      <c r="AJ37" s="115"/>
-      <c r="AK37" s="115"/>
-      <c r="AL37" s="115"/>
-      <c r="AM37" s="115"/>
-      <c r="AN37" s="115"/>
-      <c r="AO37" s="115"/>
-      <c r="AP37" s="116"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
+      <c r="R37" s="118"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="118"/>
+      <c r="U37" s="118"/>
+      <c r="V37" s="118"/>
+      <c r="W37" s="118"/>
+      <c r="X37" s="118"/>
+      <c r="Y37" s="118"/>
+      <c r="Z37" s="118"/>
+      <c r="AA37" s="118"/>
+      <c r="AB37" s="118"/>
+      <c r="AC37" s="118"/>
+      <c r="AD37" s="118"/>
+      <c r="AE37" s="118"/>
+      <c r="AF37" s="118"/>
+      <c r="AG37" s="118"/>
+      <c r="AH37" s="118"/>
+      <c r="AI37" s="118"/>
+      <c r="AJ37" s="118"/>
+      <c r="AK37" s="118"/>
+      <c r="AL37" s="118"/>
+      <c r="AM37" s="118"/>
+      <c r="AN37" s="118"/>
+      <c r="AO37" s="118"/>
+      <c r="AP37" s="119"/>
     </row>
     <row r="38" spans="2:42" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55" t="s">
+      <c r="C38" s="57"/>
+      <c r="D38" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="56" t="s">
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="57" t="s">
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="58" t="s">
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="58"/>
-      <c r="AJ38" s="58"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="106" t="s">
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="62"/>
+      <c r="AL38" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="AM38" s="106"/>
-      <c r="AN38" s="106"/>
-      <c r="AO38" s="106"/>
-      <c r="AP38" s="107"/>
+      <c r="AM38" s="109"/>
+      <c r="AN38" s="109"/>
+      <c r="AO38" s="109"/>
+      <c r="AP38" s="110"/>
     </row>
     <row r="39" spans="2:42" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
-      <c r="AH39" s="44"/>
-      <c r="AI39" s="44"/>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
-      <c r="AP39" s="44"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="46"/>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="46"/>
+      <c r="AI39" s="46"/>
+      <c r="AJ39" s="46"/>
+      <c r="AK39" s="46"/>
+      <c r="AL39" s="46"/>
+      <c r="AM39" s="46"/>
+      <c r="AN39" s="46"/>
+      <c r="AO39" s="46"/>
+      <c r="AP39" s="46"/>
     </row>
     <row r="40" spans="2:42" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
@@ -3188,122 +3198,122 @@
       <c r="AP40" s="18"/>
     </row>
     <row r="41" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG41" s="73" t="s">
+      <c r="AG41" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AH41" s="73"/>
-      <c r="AI41" s="73"/>
-      <c r="AJ41" s="73"/>
-      <c r="AK41" s="73"/>
-      <c r="AL41" s="45" t="s">
+      <c r="AH41" s="76"/>
+      <c r="AI41" s="76"/>
+      <c r="AJ41" s="76"/>
+      <c r="AK41" s="76"/>
+      <c r="AL41" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AM41" s="45"/>
-      <c r="AN41" s="45"/>
-      <c r="AO41" s="45"/>
-      <c r="AP41" s="45"/>
+      <c r="AM41" s="47"/>
+      <c r="AN41" s="47"/>
+      <c r="AO41" s="47"/>
+      <c r="AP41" s="47"/>
     </row>
     <row r="42" spans="2:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AK42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AL42" s="46" t="s">
+      <c r="AL42" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AM42" s="46"/>
-      <c r="AN42" s="46"/>
-      <c r="AO42" s="46"/>
-      <c r="AP42" s="46"/>
+      <c r="AM42" s="48"/>
+      <c r="AN42" s="48"/>
+      <c r="AO42" s="48"/>
+      <c r="AP42" s="48"/>
     </row>
     <row r="43" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="47"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="47"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="47"/>
-      <c r="AC43" s="47"/>
-      <c r="AD43" s="47"/>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="47"/>
-      <c r="AG43" s="47"/>
-      <c r="AH43" s="47"/>
-      <c r="AI43" s="47"/>
-      <c r="AJ43" s="47"/>
-      <c r="AK43" s="47"/>
-      <c r="AL43" s="47"/>
-      <c r="AM43" s="47"/>
-      <c r="AN43" s="47"/>
-      <c r="AO43" s="47"/>
-      <c r="AP43" s="47"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="49"/>
+      <c r="AD43" s="49"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="49"/>
+      <c r="AG43" s="49"/>
+      <c r="AH43" s="49"/>
+      <c r="AI43" s="49"/>
+      <c r="AJ43" s="49"/>
+      <c r="AK43" s="49"/>
+      <c r="AL43" s="49"/>
+      <c r="AM43" s="49"/>
+      <c r="AN43" s="49"/>
+      <c r="AO43" s="49"/>
+      <c r="AP43" s="49"/>
     </row>
     <row r="44" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="48"/>
-      <c r="AE44" s="48"/>
-      <c r="AF44" s="48"/>
-      <c r="AG44" s="48"/>
-      <c r="AH44" s="48"/>
-      <c r="AI44" s="48"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="48"/>
-      <c r="AL44" s="48"/>
-      <c r="AM44" s="48"/>
-      <c r="AN44" s="48"/>
-      <c r="AO44" s="48"/>
-      <c r="AP44" s="48"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="50"/>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="50"/>
+      <c r="AK44" s="50"/>
+      <c r="AL44" s="50"/>
+      <c r="AM44" s="50"/>
+      <c r="AN44" s="50"/>
+      <c r="AO44" s="50"/>
+      <c r="AP44" s="50"/>
     </row>
     <row r="45" spans="2:42" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:42" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,165 +3361,214 @@
     </row>
     <row r="47" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="2:42" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="V48" s="53" t="s">
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="V48" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AE48" s="53"/>
-      <c r="AF48" s="53"/>
-      <c r="AG48" s="53"/>
-      <c r="AH48" s="53"/>
-      <c r="AI48" s="53"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+      <c r="AG48" s="56"/>
+      <c r="AH48" s="56"/>
+      <c r="AI48" s="56"/>
       <c r="AJ48" s="15"/>
     </row>
-    <row r="49" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H49" s="72" t="s">
+    <row r="49" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="V49" s="74" t="s">
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="75"/>
+      <c r="O49" s="75"/>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="75"/>
+      <c r="V49" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="W49" s="74"/>
-      <c r="X49" s="74"/>
-      <c r="Y49" s="74"/>
-      <c r="Z49" s="74"/>
-      <c r="AA49" s="74"/>
-      <c r="AB49" s="74"/>
-      <c r="AC49" s="74"/>
-      <c r="AD49" s="74"/>
-      <c r="AE49" s="74"/>
-      <c r="AF49" s="74"/>
-      <c r="AG49" s="74"/>
-      <c r="AH49" s="74"/>
-      <c r="AI49" s="74"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
+      <c r="Y49" s="77"/>
+      <c r="Z49" s="77"/>
+      <c r="AA49" s="77"/>
+      <c r="AB49" s="77"/>
+      <c r="AC49" s="77"/>
+      <c r="AD49" s="77"/>
+      <c r="AE49" s="77"/>
+      <c r="AF49" s="77"/>
+      <c r="AG49" s="77"/>
+      <c r="AH49" s="77"/>
+      <c r="AI49" s="77"/>
       <c r="AJ49" s="16"/>
     </row>
-    <row r="53" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="121" t="s">
+    <row r="53" spans="1:43" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="121"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="121"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
-      <c r="P53" s="121"/>
-      <c r="Q53" s="121"/>
-      <c r="R53" s="121"/>
-      <c r="S53" s="121"/>
-      <c r="T53" s="121"/>
-      <c r="U53" s="121"/>
-      <c r="V53" s="121"/>
-      <c r="W53" s="121"/>
-      <c r="X53" s="121"/>
-      <c r="Y53" s="121"/>
-      <c r="Z53" s="121"/>
-      <c r="AA53" s="121"/>
-      <c r="AB53" s="121"/>
-      <c r="AC53" s="121"/>
-      <c r="AD53" s="121"/>
-      <c r="AE53" s="121"/>
-      <c r="AF53" s="121"/>
-      <c r="AG53" s="121"/>
-      <c r="AH53" s="121"/>
-      <c r="AI53" s="121"/>
-      <c r="AJ53" s="121"/>
-      <c r="AK53" s="121"/>
-      <c r="AL53" s="121"/>
-      <c r="AM53" s="121"/>
-      <c r="AN53" s="121"/>
-      <c r="AO53" s="121"/>
-      <c r="AP53" s="121"/>
-    </row>
-    <row r="54" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="38" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="51"/>
+      <c r="AD53" s="51"/>
+      <c r="AE53" s="51"/>
+      <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="51"/>
+      <c r="AL53" s="51"/>
+      <c r="AM53" s="51"/>
+      <c r="AN53" s="51"/>
+      <c r="AO53" s="51"/>
+      <c r="AP53" s="51"/>
+    </row>
+    <row r="54" spans="1:43" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="38"/>
-      <c r="AB54" s="38"/>
-      <c r="AC54" s="38"/>
-      <c r="AD54" s="38"/>
-      <c r="AE54" s="38"/>
-      <c r="AF54" s="38"/>
-      <c r="AG54" s="38"/>
-      <c r="AH54" s="38"/>
-      <c r="AI54" s="38"/>
-      <c r="AJ54" s="38"/>
-      <c r="AK54" s="38"/>
-      <c r="AL54" s="38"/>
-      <c r="AM54" s="38"/>
-      <c r="AN54" s="38"/>
-      <c r="AO54" s="38"/>
-      <c r="AP54" s="38"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="40"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="40"/>
+      <c r="AI54" s="40"/>
+      <c r="AJ54" s="40"/>
+      <c r="AK54" s="40"/>
+      <c r="AL54" s="40"/>
+      <c r="AM54" s="40"/>
+      <c r="AN54" s="40"/>
+      <c r="AO54" s="40"/>
+      <c r="AP54" s="40"/>
+    </row>
+    <row r="62" spans="1:43" s="39" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="38"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="38"/>
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="38"/>
+      <c r="AI62" s="38"/>
+      <c r="AJ62" s="38"/>
+      <c r="AK62" s="38"/>
+      <c r="AL62" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM62" s="38"/>
+      <c r="AN62" s="38"/>
+      <c r="AO62" s="38"/>
+      <c r="AP62" s="38"/>
+      <c r="AQ62" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="57">
